--- a/data/us-500.xlsx
+++ b/data/us-500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>first_name</t>
   </si>
@@ -35,15 +35,9 @@
     <t>address</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -53,12 +47,6 @@
     <t>6649 N Blue Gum St</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>jbutt@gmail.com</t>
-  </si>
-  <si>
     <t>Josephine</t>
   </si>
   <si>
@@ -68,12 +56,6 @@
     <t>4 B Blue Ridge Blvd</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>josephine_darakjy@darakjy.org</t>
-  </si>
-  <si>
     <t>Art</t>
   </si>
   <si>
@@ -83,12 +65,6 @@
     <t>8 W Cerritos Ave #54</t>
   </si>
   <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>art@venere.org</t>
-  </si>
-  <si>
     <t>Lenna</t>
   </si>
   <si>
@@ -98,12 +74,6 @@
     <t>639 Main St</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>lpaprocki@hotmail.com</t>
-  </si>
-  <si>
     <t>Donette</t>
   </si>
   <si>
@@ -113,12 +83,6 @@
     <t>34 Center St</t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>donette.foller@cox.net</t>
-  </si>
-  <si>
     <t>Simona</t>
   </si>
   <si>
@@ -128,9 +92,6 @@
     <t>3 Mcauley Dr</t>
   </si>
   <si>
-    <t>simona@morasca.com</t>
-  </si>
-  <si>
     <t>Mitsue</t>
   </si>
   <si>
@@ -140,12 +101,6 @@
     <t>7 Eads St</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>mitsue_tollner@yahoo.com</t>
-  </si>
-  <si>
     <t>Leota</t>
   </si>
   <si>
@@ -155,12 +110,6 @@
     <t>7 W Jackson Blvd</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>leota@hotmail.com</t>
-  </si>
-  <si>
     <t>Sage</t>
   </si>
   <si>
@@ -170,12 +119,6 @@
     <t>5 Boston Ave #88</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>sage_wieser@cox.net</t>
-  </si>
-  <si>
     <t>Kris</t>
   </si>
   <si>
@@ -185,12 +128,6 @@
     <t>228 Runamuck Pl #2808</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>kris@gmail.com</t>
-  </si>
-  <si>
     <t>Minna</t>
   </si>
   <si>
@@ -200,12 +137,6 @@
     <t>2371 Jerrold Ave</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>minna_amigon@yahoo.com</t>
-  </si>
-  <si>
     <t>Abel</t>
   </si>
   <si>
@@ -215,12 +146,6 @@
     <t>37275 St  Rt 17m M</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>amaclead@gmail.com</t>
-  </si>
-  <si>
     <t>Kiley</t>
   </si>
   <si>
@@ -230,9 +155,6 @@
     <t>25 E 75th St #69</t>
   </si>
   <si>
-    <t>kiley.caldarera@aol.com</t>
-  </si>
-  <si>
     <t>Graciela</t>
   </si>
   <si>
@@ -242,9 +164,6 @@
     <t>98 Connecticut Ave Nw</t>
   </si>
   <si>
-    <t>gruta@cox.net</t>
-  </si>
-  <si>
     <t>Cammy</t>
   </si>
   <si>
@@ -254,12 +173,6 @@
     <t>56 E Morehead St</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>calbares@gmail.com</t>
-  </si>
-  <si>
     <t>Mattie</t>
   </si>
   <si>
@@ -269,12 +182,6 @@
     <t>73 State Road 434 E</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>mattie@aol.com</t>
-  </si>
-  <si>
     <t>Meaghan</t>
   </si>
   <si>
@@ -284,12 +191,6 @@
     <t>69734 E Carrillo St</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>meaghan@hotmail.com</t>
-  </si>
-  <si>
     <t>Gladys</t>
   </si>
   <si>
@@ -299,12 +200,6 @@
     <t>322 New Horizon Blvd</t>
   </si>
   <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>gladys.rim@rim.org</t>
-  </si>
-  <si>
     <t>Yuki</t>
   </si>
   <si>
@@ -314,7 +209,31 @@
     <t>1 State Route 27</t>
   </si>
   <si>
-    <t>yuki_whobrey@aol.com</t>
+    <t>Apt</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>23N</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>BOD</t>
   </si>
 </sst>
 </file>
@@ -350,8 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,396 +606,397 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>70116</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2" s="1">
+        <v>32123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>48116</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="F3" s="1">
+        <v>29535</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>8014</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="F4" s="1">
+        <v>36290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
       </c>
       <c r="E5">
         <v>99501</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
+      <c r="F5" s="1">
+        <v>32123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
       </c>
       <c r="E6">
         <v>45011</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
+      <c r="F6" s="1">
+        <v>29535</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7">
         <v>44805</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
+      <c r="F7" s="1">
+        <v>36290</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>60632</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
+      <c r="F8" s="1">
+        <v>32123</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>95111</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
+      <c r="F9" s="1">
+        <v>29535</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>57105</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
+      <c r="F10" s="1">
+        <v>36290</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>21224</v>
       </c>
-      <c r="F11" t="s">
-        <v>54</v>
+      <c r="F11" s="1">
+        <v>32123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>19443</v>
       </c>
-      <c r="F12" t="s">
-        <v>59</v>
+      <c r="F12" s="1">
+        <v>29535</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
         <v>63</v>
       </c>
       <c r="E13">
         <v>11953</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
+      <c r="F13" s="1">
+        <v>36290</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
       </c>
       <c r="E14">
         <v>90034</v>
       </c>
-      <c r="F14" t="s">
-        <v>68</v>
+      <c r="F14" s="1">
+        <v>32123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>44023</v>
       </c>
-      <c r="F15" t="s">
-        <v>72</v>
+      <c r="F15" s="1">
+        <v>29535</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>78045</v>
       </c>
-      <c r="F16" t="s">
-        <v>77</v>
+      <c r="F16" s="1">
+        <v>36290</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>85013</v>
       </c>
-      <c r="F17" t="s">
-        <v>82</v>
+      <c r="F17" s="1">
+        <v>32123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>37110</v>
       </c>
-      <c r="F18" t="s">
-        <v>87</v>
+      <c r="F18" s="1">
+        <v>29535</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
       </c>
       <c r="E19">
         <v>53207</v>
       </c>
-      <c r="F19" t="s">
-        <v>92</v>
+      <c r="F19" s="1">
+        <v>36290</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>48180</v>
       </c>
-      <c r="F20" t="s">
-        <v>96</v>
+      <c r="F20" s="1">
+        <v>32123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/us-500.xlsx
+++ b/data/us-500.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imdadul\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17775" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -239,8 +234,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,21 +567,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -595,7 +590,7 @@
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -629,13 +624,13 @@
         <v>62</v>
       </c>
       <c r="E2">
-        <v>70116</v>
+        <v>11101</v>
       </c>
       <c r="F2" s="1">
         <v>32123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -649,13 +644,13 @@
         <v>63</v>
       </c>
       <c r="E3">
-        <v>48116</v>
+        <v>11101</v>
       </c>
       <c r="F3" s="1">
         <v>29535</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -669,13 +664,13 @@
         <v>64</v>
       </c>
       <c r="E4">
-        <v>8014</v>
+        <v>11101</v>
       </c>
       <c r="F4" s="1">
         <v>36290</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -689,13 +684,13 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>99501</v>
+        <v>11101</v>
       </c>
       <c r="F5" s="1">
         <v>32123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -709,13 +704,13 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>45011</v>
+        <v>11101</v>
       </c>
       <c r="F6" s="1">
         <v>29535</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -729,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>44805</v>
+        <v>11101</v>
       </c>
       <c r="F7" s="1">
         <v>36290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -749,13 +744,13 @@
         <v>65</v>
       </c>
       <c r="E8">
-        <v>60632</v>
+        <v>11101</v>
       </c>
       <c r="F8" s="1">
         <v>32123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -769,13 +764,13 @@
         <v>62</v>
       </c>
       <c r="E9">
-        <v>95111</v>
+        <v>11101</v>
       </c>
       <c r="F9" s="1">
         <v>29535</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -789,13 +784,13 @@
         <v>63</v>
       </c>
       <c r="E10">
-        <v>57105</v>
+        <v>11101</v>
       </c>
       <c r="F10" s="1">
         <v>36290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -809,13 +804,13 @@
         <v>64</v>
       </c>
       <c r="E11">
-        <v>21224</v>
+        <v>11101</v>
       </c>
       <c r="F11" s="1">
         <v>32123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -829,13 +824,13 @@
         <v>62</v>
       </c>
       <c r="E12">
-        <v>19443</v>
+        <v>11101</v>
       </c>
       <c r="F12" s="1">
         <v>29535</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -849,13 +844,13 @@
         <v>63</v>
       </c>
       <c r="E13">
-        <v>11953</v>
+        <v>11101</v>
       </c>
       <c r="F13" s="1">
         <v>36290</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -869,13 +864,13 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>90034</v>
+        <v>11101</v>
       </c>
       <c r="F14" s="1">
         <v>32123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -889,13 +884,13 @@
         <v>66</v>
       </c>
       <c r="E15">
-        <v>44023</v>
+        <v>11101</v>
       </c>
       <c r="F15" s="1">
         <v>29535</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -909,13 +904,13 @@
         <v>62</v>
       </c>
       <c r="E16">
-        <v>78045</v>
+        <v>11101</v>
       </c>
       <c r="F16" s="1">
         <v>36290</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -929,13 +924,13 @@
         <v>63</v>
       </c>
       <c r="E17">
-        <v>85013</v>
+        <v>11101</v>
       </c>
       <c r="F17" s="1">
         <v>32123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -949,13 +944,13 @@
         <v>64</v>
       </c>
       <c r="E18">
-        <v>37110</v>
+        <v>11101</v>
       </c>
       <c r="F18" s="1">
         <v>29535</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -969,13 +964,13 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>53207</v>
+        <v>11101</v>
       </c>
       <c r="F19" s="1">
         <v>36290</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -989,7 +984,7 @@
         <v>68</v>
       </c>
       <c r="E20">
-        <v>48180</v>
+        <v>11101</v>
       </c>
       <c r="F20" s="1">
         <v>32123</v>
